--- a/Dataset2.xlsx
+++ b/Dataset2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashut\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\amineeeeee\github\local repo\sql portfolio india data set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C8F1D4-E55E-4759-9D3D-50453D62468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7364F9EE-42D3-496B-B4B5-1759C7A6487A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{CFEB43A2-250E-49A7-BA97-6FAD74C76918}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CFEB43A2-250E-49A7-BA97-6FAD74C76918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -2047,7 +2039,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2391,13 +2383,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D99D82E-0530-4B20-977E-F00FE1C1EE66}">
   <dimension ref="A1:D641"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D641"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>2741239</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2439,7 +2437,7 @@
         <v>4418797</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2453,7 +2451,7 @@
         <v>7214225</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2467,7 +2465,7 @@
         <v>4543159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2479,7 @@
         <v>400309</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2493,7 @@
         <v>2583052</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>1813906</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>2127789</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2535,7 @@
         <v>3673889</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2551,7 +2549,7 @@
         <v>728999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2565,7 +2563,7 @@
         <v>5954391</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2579,7 +2577,7 @@
         <v>622506</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>3674179</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2605,7 @@
         <v>1128350</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>2397888</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2635,7 +2633,7 @@
         <v>2888445</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>1514190</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>2490656</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2677,7 +2675,7 @@
         <v>2092745</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>4081148</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2705,7 +2703,7 @@
         <v>1078692</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>21167</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>1273821</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2747,7 +2745,7 @@
         <v>749237</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>2811569</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2775,7 +2773,7 @@
         <v>754894</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>700843</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2803,7 +2801,7 @@
         <v>845071</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2817,7 +2815,7 @@
         <v>1379545</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2831,7 +2829,7 @@
         <v>2540073</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2845,7 +2843,7 @@
         <v>3701282</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>4613913</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2873,7 +2871,7 @@
         <v>753745</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2887,7 +2885,7 @@
         <v>1889752</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>259898</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2915,7 +2913,7 @@
         <v>1303048</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2929,7 +2927,7 @@
         <v>3487731</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>950075</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -2957,7 +2955,7 @@
         <v>1701698</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2971,7 +2969,7 @@
         <v>1648997</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2985,7 +2983,7 @@
         <v>2320529</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>3239774</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3013,7 +3011,7 @@
         <v>2148665</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>3120506</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3041,7 +3039,7 @@
         <v>1799410</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>392232</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3069,7 +3067,7 @@
         <v>9621551</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3083,7 +3081,7 @@
         <v>990923</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -3097,7 +3095,7 @@
         <v>2034763</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>3596674</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -3125,7 +3123,7 @@
         <v>1797485</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -3139,7 +3137,7 @@
         <v>3260699</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -3153,7 +3151,7 @@
         <v>1008039</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>1222755</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>7717563</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>4448359</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -3209,7 +3207,7 @@
         <v>1481255</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>2603751</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>595527</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>1693622</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -3265,7 +3263,7 @@
         <v>1385881</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>1413199</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -3293,7 +3291,7 @@
         <v>2464464</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -3307,7 +3305,7 @@
         <v>1388525</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>441162</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>2970541</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>4779661</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>2452595</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>1575362</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>1506337</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>3037766</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -3419,7 +3417,7 @@
         <v>1200334</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -3433,7 +3431,7 @@
         <v>2548462</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -3447,7 +3445,7 @@
         <v>1551019</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>2880365</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -3475,7 +3473,7 @@
         <v>2408523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -3489,7 +3487,7 @@
         <v>1703005</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>1634445</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -3517,7 +3515,7 @@
         <v>2728407</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>2371061</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>2585049</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3559,7 +3557,7 @@
         <v>1703300</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -3573,7 +3571,7 @@
         <v>255230</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -3587,7 +3585,7 @@
         <v>2177331</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>3682713</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>2363937</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>381956</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>2663629</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -3657,7 +3655,7 @@
         <v>3502404</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>237399</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>2062330</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -3699,7 +3697,7 @@
         <v>738804</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>3681896</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -3727,7 +3725,7 @@
         <v>3499171</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>2586258</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>1110906</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>757847</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>1706352</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>1736617</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>582320</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -3825,7 +3823,7 @@
         <v>1020791</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>519080</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -3853,7 +3851,7 @@
         <v>391605</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -3867,7 +3865,7 @@
         <v>259648</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>125745</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>1952756</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -3909,7 +3907,7 @@
         <v>144182</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>1055450</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -3937,7 +3935,7 @@
         <v>2204307</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>148226</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
@@ -3965,7 +3963,7 @@
         <v>1042886</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
@@ -3979,7 +3977,7 @@
         <v>4646732</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v>1762375</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -4007,7 +4005,7 @@
         <v>2090922</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>1255104</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -4035,7 +4033,7 @@
         <v>1137961</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
@@ -4049,7 +4047,7 @@
         <v>482162</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -4063,7 +4061,7 @@
         <v>1659456</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -4077,7 +4075,7 @@
         <v>991730</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
@@ -4091,7 +4089,7 @@
         <v>1544338</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>4174064</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -4119,7 +4117,7 @@
         <v>274143</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>2039547</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>3458045</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>2605914</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
@@ -4175,7 +4173,7 @@
         <v>2624470</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
@@ -4189,7 +4187,7 @@
         <v>343709</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
@@ -4203,7 +4201,7 @@
         <v>2127086</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -4217,7 +4215,7 @@
         <v>533638</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>1676276</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -4245,7 +4243,7 @@
         <v>2089649</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -4259,7 +4257,7 @@
         <v>191173</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>157</v>
       </c>
@@ -4273,7 +4271,7 @@
         <v>1264219</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>158</v>
       </c>
@@ -4287,7 +4285,7 @@
         <v>3937385</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>159</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>1846823</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>928500</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>161</v>
       </c>
@@ -4329,7 +4327,7 @@
         <v>786754</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>162</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>1634409</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>163</v>
       </c>
@@ -4357,7 +4355,7 @@
         <v>1945497</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>164</v>
       </c>
@@ -4371,7 +4369,7 @@
         <v>312520</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -4385,7 +4383,7 @@
         <v>1696694</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>166</v>
       </c>
@@ -4399,7 +4397,7 @@
         <v>1492073</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>3100946</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -4427,7 +4425,7 @@
         <v>1563715</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>169</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>378230</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -4455,7 +4453,7 @@
         <v>799781</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>2684487</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>2185793</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>174</v>
       </c>
@@ -4497,7 +4495,7 @@
         <v>1506843</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>175</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>1847023</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -4525,7 +4523,7 @@
         <v>1206516</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -4539,7 +4537,7 @@
         <v>686133</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>1192811</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>1949258</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>2050862</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -4595,7 +4593,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>182</v>
       </c>
@@ -4609,7 +4607,7 @@
         <v>1326335</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>183</v>
       </c>
@@ -4623,7 +4621,7 @@
         <v>214102</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -4637,7 +4635,7 @@
         <v>378811</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>186</v>
       </c>
@@ -4651,7 +4649,7 @@
         <v>2159775</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -4665,7 +4663,7 @@
         <v>704524</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -4679,7 +4677,7 @@
         <v>52074</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>189</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>409936</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>190</v>
       </c>
@@ -4707,7 +4705,7 @@
         <v>1321442</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>191</v>
       </c>
@@ -4721,7 +4719,7 @@
         <v>1388552</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -4735,7 +4733,7 @@
         <v>3343872</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>1709346</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>194</v>
       </c>
@@ -4763,7 +4761,7 @@
         <v>283583</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>195</v>
       </c>
@@ -4777,7 +4775,7 @@
         <v>317917</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -4791,7 +4789,7 @@
         <v>5154296</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>78690</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -4819,7 +4817,7 @@
         <v>825922</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>99214</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>3282388</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -4861,7 +4859,7 @@
         <v>2251744</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -4875,7 +4873,7 @@
         <v>1774480</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -4889,7 +4887,7 @@
         <v>1581810</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>2470996</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>206</v>
       </c>
@@ -4917,7 +4915,7 @@
         <v>1809733</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>617508</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>208</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>1885204</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -4959,7 +4957,7 @@
         <v>942011</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>600163</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>211</v>
       </c>
@@ -4987,7 +4985,7 @@
         <v>2632733</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>212</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>2498156</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>213</v>
       </c>
@@ -5015,7 +5013,7 @@
         <v>2029074</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>214</v>
       </c>
@@ -5029,7 +5027,7 @@
         <v>1064570</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -5043,7 +5041,7 @@
         <v>1072942</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -5057,7 +5055,7 @@
         <v>577817</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>297446</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -5085,7 +5083,7 @@
         <v>1391753</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>219</v>
       </c>
@@ -5099,7 +5097,7 @@
         <v>1969168</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -5113,7 +5111,7 @@
         <v>3529031</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>1322784</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>222</v>
       </c>
@@ -5141,7 +5139,7 @@
         <v>687271</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>223</v>
       </c>
@@ -5155,7 +5153,7 @@
         <v>1648115</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>224</v>
       </c>
@@ -5169,7 +5167,7 @@
         <v>4391418</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>4681645</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>3620268</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>227</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>2445474</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>228</v>
       </c>
@@ -5225,7 +5223,7 @@
         <v>1008183</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -5239,7 +5237,7 @@
         <v>1313551</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>1066888</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -5267,7 +5265,7 @@
         <v>3433919</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>1322507</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -5295,7 +5293,7 @@
         <v>2562012</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>234</v>
       </c>
@@ -5309,7 +5307,7 @@
         <v>4440895</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>235</v>
       </c>
@@ -5323,7 +5321,7 @@
         <v>2566326</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>236</v>
       </c>
@@ -5337,7 +5335,7 @@
         <v>1025213</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>237</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>1241519</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -5365,7 +5363,7 @@
         <v>4887813</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -5379,7 +5377,7 @@
         <v>2298323</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>240</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>1514432</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -5407,7 +5405,7 @@
         <v>2032036</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -5421,7 +5419,7 @@
         <v>659296</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>243</v>
       </c>
@@ -5435,7 +5433,7 @@
         <v>454768</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>243</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>1104285</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>244</v>
       </c>
@@ -5463,7 +5461,7 @@
         <v>1774692</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>245</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>4850029</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>246</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>570465</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>247</v>
       </c>
@@ -5505,7 +5503,7 @@
         <v>4092845</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>248</v>
       </c>
@@ -5519,7 +5517,7 @@
         <v>1890422</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>249</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>1776421</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>250</v>
       </c>
@@ -5547,7 +5545,7 @@
         <v>1597668</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>251</v>
       </c>
@@ -5561,7 +5559,7 @@
         <v>1734495</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>252</v>
       </c>
@@ -5575,7 +5573,7 @@
         <v>1177345</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>253</v>
       </c>
@@ -5589,7 +5587,7 @@
         <v>1743931</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>254</v>
       </c>
@@ -5603,7 +5601,7 @@
         <v>1241350</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>255</v>
       </c>
@@ -5617,7 +5615,7 @@
         <v>1586625</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>256</v>
       </c>
@@ -5631,7 +5629,7 @@
         <v>5519145</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>257</v>
       </c>
@@ -5645,7 +5643,7 @@
         <v>3943323</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -5659,7 +5657,7 @@
         <v>1108974</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>259</v>
       </c>
@@ -5673,7 +5671,7 @@
         <v>456113</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -5687,7 +5685,7 @@
         <v>517992</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>261</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>3276697</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>262</v>
       </c>
@@ -5715,7 +5713,7 @@
         <v>2463289</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>263</v>
       </c>
@@ -5729,7 +5727,7 @@
         <v>1136971</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>264</v>
       </c>
@@ -5743,7 +5741,7 @@
         <v>395124</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>265</v>
       </c>
@@ -5757,7 +5755,7 @@
         <v>6626178</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>266</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>669919</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>267</v>
       </c>
@@ -5785,7 +5783,7 @@
         <v>1827192</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>268</v>
       </c>
@@ -5799,7 +5797,7 @@
         <v>2193590</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>269</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>1689974</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>270</v>
       </c>
@@ -5827,7 +5825,7 @@
         <v>4229917</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>271</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>1959046</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>272</v>
       </c>
@@ -5855,7 +5853,7 @@
         <v>1828730</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>273</v>
       </c>
@@ -5869,7 +5867,7 @@
         <v>3872846</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>274</v>
       </c>
@@ -5883,7 +5881,7 @@
         <v>1529958</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>275</v>
       </c>
@@ -5897,7 +5895,7 @@
         <v>2160119</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>276</v>
       </c>
@@ -5911,7 +5909,7 @@
         <v>791042</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>277</v>
       </c>
@@ -5925,7 +5923,7 @@
         <v>1760405</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>278</v>
       </c>
@@ -5939,7 +5937,7 @@
         <v>1619707</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>279</v>
       </c>
@@ -5953,7 +5951,7 @@
         <v>851669</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>280</v>
       </c>
@@ -5967,7 +5965,7 @@
         <v>4494204</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>281</v>
       </c>
@@ -5981,7 +5979,7 @@
         <v>1125313</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>282</v>
       </c>
@@ -5995,7 +5993,7 @@
         <v>1025048</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>283</v>
       </c>
@@ -6009,7 +6007,7 @@
         <v>958405</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>284</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>1411129</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>285</v>
       </c>
@@ -6037,7 +6035,7 @@
         <v>1998603</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>286</v>
       </c>
@@ -6051,7 +6049,7 @@
         <v>579505</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>287</v>
       </c>
@@ -6065,7 +6063,7 @@
         <v>2137045</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>288</v>
       </c>
@@ -6079,7 +6077,7 @@
         <v>1334152</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>289</v>
       </c>
@@ -6093,7 +6091,7 @@
         <v>3687165</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>290</v>
       </c>
@@ -6107,7 +6105,7 @@
         <v>1092256</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>291</v>
       </c>
@@ -6121,7 +6119,7 @@
         <v>2743082</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>292</v>
       </c>
@@ -6135,7 +6133,7 @@
         <v>1840221</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>822526</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>294</v>
       </c>
@@ -6163,7 +6161,7 @@
         <v>2092371</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>295</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>1626384</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>296</v>
       </c>
@@ -6191,7 +6189,7 @@
         <v>1074304</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>297</v>
       </c>
@@ -6205,7 +6203,7 @@
         <v>1576869</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -6219,7 +6217,7 @@
         <v>1517542</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -6233,7 +6231,7 @@
         <v>1253938</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -6247,7 +6245,7 @@
         <v>3998252</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -6261,7 +6259,7 @@
         <v>733110</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -6275,7 +6273,7 @@
         <v>1510075</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -6289,7 +6287,7 @@
         <v>748941</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -6303,7 +6301,7 @@
         <v>1656616</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -6317,7 +6315,7 @@
         <v>1870374</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>2523003</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>1796184</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -6359,7 +6357,7 @@
         <v>4581268</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -6373,7 +6371,7 @@
         <v>1436719</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -6387,7 +6385,7 @@
         <v>815168</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -6401,7 +6399,7 @@
         <v>200222</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>313</v>
       </c>
@@ -6415,7 +6413,7 @@
         <v>1458248</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>314</v>
       </c>
@@ -6429,7 +6427,7 @@
         <v>956313</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>315</v>
       </c>
@@ -6443,7 +6441,7 @@
         <v>140802</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>316</v>
       </c>
@@ -6457,7 +6455,7 @@
         <v>1228686</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>317</v>
       </c>
@@ -6471,7 +6469,7 @@
         <v>3776269</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>318</v>
       </c>
@@ -6485,7 +6483,7 @@
         <v>1505324</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>319</v>
       </c>
@@ -6499,7 +6497,7 @@
         <v>1064493</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>320</v>
       </c>
@@ -6513,7 +6511,7 @@
         <v>1307375</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -6527,7 +6525,7 @@
         <v>616435</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -6541,7 +6539,7 @@
         <v>3071029</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -6555,7 +6553,7 @@
         <v>1292042</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>1599596</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -6583,7 +6581,7 @@
         <v>1440361</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -6597,7 +6595,7 @@
         <v>1801733</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>1666886</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -6625,7 +6623,7 @@
         <v>2797370</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -6639,7 +6637,7 @@
         <v>1310061</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
@@ -6653,7 +6651,7 @@
         <v>1873046</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -6667,7 +6665,7 @@
         <v>2299885</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -6681,7 +6679,7 @@
         <v>4021243</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -6695,7 +6693,7 @@
         <v>2251673</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -6709,7 +6707,7 @@
         <v>531885</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -6723,7 +6721,7 @@
         <v>84121</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>336</v>
       </c>
@@ -6737,7 +6735,7 @@
         <v>74004</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -6751,7 +6749,7 @@
         <v>1690400</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -6765,7 +6763,7 @@
         <v>230696</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -6779,7 +6777,7 @@
         <v>2819086</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>554519</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -6807,7 +6805,7 @@
         <v>716259</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -6821,7 +6819,7 @@
         <v>267988</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -6835,7 +6833,7 @@
         <v>887142</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -6849,7 +6847,7 @@
         <v>1536401</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -6863,7 +6861,7 @@
         <v>83955</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -6877,7 +6875,7 @@
         <v>3876001</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -6891,7 +6889,7 @@
         <v>4496694</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -6905,7 +6903,7 @@
         <v>2635375</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -6919,7 +6917,7 @@
         <v>1389920</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -6933,7 +6931,7 @@
         <v>1379647</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>351</v>
       </c>
@@ -6947,7 +6945,7 @@
         <v>1206640</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>352</v>
       </c>
@@ -6961,7 +6959,7 @@
         <v>658917</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>353</v>
       </c>
@@ -6975,7 +6973,7 @@
         <v>1951014</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>354</v>
       </c>
@@ -6989,7 +6987,7 @@
         <v>1974551</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>355</v>
       </c>
@@ -7003,7 +7001,7 @@
         <v>3086293</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>356</v>
       </c>
@@ -7017,7 +7015,7 @@
         <v>4517398</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>357</v>
       </c>
@@ -7031,7 +7029,7 @@
         <v>1879809</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>358</v>
       </c>
@@ -7045,7 +7043,7 @@
         <v>424483</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>359</v>
       </c>
@@ -7059,7 +7057,7 @@
         <v>437903</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>360</v>
       </c>
@@ -7073,7 +7071,7 @@
         <v>870354</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>361</v>
       </c>
@@ -7087,7 +7085,7 @@
         <v>4053463</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>362</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>964655</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>363</v>
       </c>
@@ -7115,7 +7113,7 @@
         <v>92076</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>364</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>3564544</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>365</v>
       </c>
@@ -7143,7 +7141,7 @@
         <v>31564</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>366</v>
       </c>
@@ -7157,7 +7155,7 @@
         <v>1042137</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>367</v>
       </c>
@@ -7171,7 +7169,7 @@
         <v>1000912</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>368</v>
       </c>
@@ -7185,7 +7183,7 @@
         <v>64473</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>369</v>
       </c>
@@ -7199,7 +7197,7 @@
         <v>1221592</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>370</v>
       </c>
@@ -7213,7 +7211,7 @@
         <v>726978</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>371</v>
       </c>
@@ -7227,7 +7225,7 @@
         <v>2454196</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>372</v>
       </c>
@@ -7241,7 +7239,7 @@
         <v>117894</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>373</v>
       </c>
@@ -7255,7 +7253,7 @@
         <v>133487</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>374</v>
       </c>
@@ -7269,7 +7267,7 @@
         <v>461790</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>375</v>
       </c>
@@ -7283,7 +7281,7 @@
         <v>145726</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>376</v>
       </c>
@@ -7297,7 +7295,7 @@
         <v>50484</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>377</v>
       </c>
@@ -7311,7 +7309,7 @@
         <v>54080</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>378</v>
       </c>
@@ -7325,7 +7323,7 @@
         <v>83030</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>379</v>
       </c>
@@ -7339,7 +7337,7 @@
         <v>4589838</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>380</v>
       </c>
@@ -7353,7 +7351,7 @@
         <v>3498739</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>381</v>
       </c>
@@ -7367,7 +7365,7 @@
         <v>161428</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>382</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>2001762</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>383</v>
       </c>
@@ -7395,7 +7393,7 @@
         <v>4487379</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>384</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>3038252</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>385</v>
       </c>
@@ -7423,7 +7421,7 @@
         <v>1564708</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>386</v>
       </c>
@@ -7437,7 +7435,7 @@
         <v>2684703</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>387</v>
       </c>
@@ -7451,7 +7449,7 @@
         <v>1032754</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>388</v>
       </c>
@@ -7465,7 +7463,7 @@
         <v>4053028</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>389</v>
       </c>
@@ -7479,7 +7477,7 @@
         <v>41816</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>390</v>
       </c>
@@ -7493,7 +7491,7 @@
         <v>922088</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>391</v>
       </c>
@@ -7507,7 +7505,7 @@
         <v>2035064</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>392</v>
       </c>
@@ -7521,7 +7519,7 @@
         <v>875958</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>393</v>
       </c>
@@ -7535,7 +7533,7 @@
         <v>1868529</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>394</v>
       </c>
@@ -7549,7 +7547,7 @@
         <v>4112920</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>395</v>
       </c>
@@ -7563,7 +7561,7 @@
         <v>3988845</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>396</v>
       </c>
@@ -7577,7 +7575,7 @@
         <v>613192</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>397</v>
       </c>
@@ -7591,7 +7589,7 @@
         <v>86364</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>398</v>
       </c>
@@ -7605,7 +7603,7 @@
         <v>999777</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>399</v>
       </c>
@@ -7619,7 +7617,7 @@
         <v>1054905</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>400</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>1340411</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>401</v>
       </c>
@@ -7647,7 +7645,7 @@
         <v>1805769</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>402</v>
       </c>
@@ -7661,7 +7659,7 @@
         <v>769751</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>403</v>
       </c>
@@ -7675,7 +7673,7 @@
         <v>2547184</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>404</v>
       </c>
@@ -7689,7 +7687,7 @@
         <v>2205968</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>405</v>
       </c>
@@ -7703,7 +7701,7 @@
         <v>2519738</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>406</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>3033288</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>407</v>
       </c>
@@ -7731,7 +7729,7 @@
         <v>3443689</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>408</v>
       </c>
@@ -7745,7 +7743,7 @@
         <v>1089263</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>409</v>
       </c>
@@ -7759,7 +7757,7 @@
         <v>2496970</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>410</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>995746</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>411</v>
       </c>
@@ -7787,7 +7785,7 @@
         <v>194622</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>412</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>250260</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>413</v>
       </c>
@@ -7815,7 +7813,7 @@
         <v>4772006</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>414</v>
       </c>
@@ -7829,7 +7827,7 @@
         <v>1965970</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>415</v>
       </c>
@@ -7843,7 +7841,7 @@
         <v>957423</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>416</v>
       </c>
@@ -7857,7 +7855,7 @@
         <v>901896</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>417</v>
       </c>
@@ -7871,7 +7869,7 @@
         <v>3085411</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>418</v>
       </c>
@@ -7885,7 +7883,7 @@
         <v>9356962</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>419</v>
       </c>
@@ -7899,7 +7897,7 @@
         <v>1367765</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>420</v>
       </c>
@@ -7913,7 +7911,7 @@
         <v>7103807</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>421</v>
       </c>
@@ -7927,7 +7925,7 @@
         <v>4143512</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>422</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>4801062</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>423</v>
       </c>
@@ -7955,7 +7953,7 @@
         <v>3001127</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>424</v>
       </c>
@@ -7969,7 +7967,7 @@
         <v>1220946</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>425</v>
       </c>
@@ -7983,7 +7981,7 @@
         <v>5167600</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>426</v>
       </c>
@@ -7997,7 +7995,7 @@
         <v>2823768</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>427</v>
       </c>
@@ -8011,7 +8009,7 @@
         <v>1616450</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>428</v>
       </c>
@@ -8025,7 +8023,7 @@
         <v>3307743</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>429</v>
       </c>
@@ -8039,7 +8037,7 @@
         <v>4653570</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>430</v>
       </c>
@@ -8053,7 +8051,7 @@
         <v>954605</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>431</v>
       </c>
@@ -8067,7 +8065,7 @@
         <v>2877653</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>432</v>
       </c>
@@ -8081,7 +8079,7 @@
         <v>771639</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>433</v>
       </c>
@@ -8095,7 +8093,7 @@
         <v>3488809</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>434</v>
       </c>
@@ -8109,7 +8107,7 @@
         <v>1726601</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>435</v>
       </c>
@@ -8123,7 +8121,7 @@
         <v>3361292</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>436</v>
       </c>
@@ -8137,7 +8135,7 @@
         <v>1648295</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>437</v>
       </c>
@@ -8151,7 +8149,7 @@
         <v>139820</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>438</v>
       </c>
@@ -8165,7 +8163,7 @@
         <v>590297</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>439</v>
       </c>
@@ -8179,7 +8177,7 @@
         <v>1091854</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>440</v>
       </c>
@@ -8193,7 +8191,7 @@
         <v>6107187</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>441</v>
       </c>
@@ -8207,7 +8205,7 @@
         <v>1329672</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>442</v>
       </c>
@@ -8221,7 +8219,7 @@
         <v>2219146</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>443</v>
       </c>
@@ -8235,7 +8233,7 @@
         <v>962789</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>444</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>826067</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>445</v>
       </c>
@@ -8263,7 +8261,7 @@
         <v>142004</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>447</v>
       </c>
@@ -8277,7 +8275,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>449</v>
       </c>
@@ -8291,7 +8289,7 @@
         <v>2551335</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>450</v>
       </c>
@@ -8305,7 +8303,7 @@
         <v>887978</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>451</v>
       </c>
@@ -8319,7 +8317,7 @@
         <v>105597</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>452</v>
       </c>
@@ -8333,7 +8331,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>453</v>
       </c>
@@ -8347,7 +8345,7 @@
         <v>2241624</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>454</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>818008</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>456</v>
       </c>
@@ -8375,7 +8373,7 @@
         <v>693947</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>457</v>
       </c>
@@ -8389,7 +8387,7 @@
         <v>10009781</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>458</v>
       </c>
@@ -8403,7 +8401,7 @@
         <v>3656539</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>459</v>
       </c>
@@ -8417,7 +8415,7 @@
         <v>610382</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>460</v>
       </c>
@@ -8431,7 +8429,7 @@
         <v>1657576</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>461</v>
       </c>
@@ -8445,7 +8443,7 @@
         <v>900422</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>462</v>
       </c>
@@ -8459,7 +8457,7 @@
         <v>2809934</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>463</v>
       </c>
@@ -8473,7 +8471,7 @@
         <v>1939869</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>464</v>
       </c>
@@ -8487,7 +8485,7 @@
         <v>2037573</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>465</v>
       </c>
@@ -8501,7 +8499,7 @@
         <v>1042708</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>466</v>
       </c>
@@ -8515,7 +8513,7 @@
         <v>561293</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>467</v>
       </c>
@@ -8529,7 +8527,7 @@
         <v>2390776</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>468</v>
       </c>
@@ -8543,7 +8541,7 @@
         <v>1205437</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>469</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>1016520</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>470</v>
       </c>
@@ -8571,7 +8569,7 @@
         <v>176573</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>471</v>
       </c>
@@ -8585,7 +8583,7 @@
         <v>1836086</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>472</v>
       </c>
@@ -8599,7 +8597,7 @@
         <v>5913457</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>473</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>3935042</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>474</v>
       </c>
@@ -8627,7 +8625,7 @@
         <v>1502338</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>475</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>1343734</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>476</v>
       </c>
@@ -8655,7 +8653,7 @@
         <v>1197412</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>477</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>1895686</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>478</v>
       </c>
@@ -8683,7 +8681,7 @@
         <v>5838465</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>479</v>
       </c>
@@ -8697,7 +8695,7 @@
         <v>565223</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>480</v>
       </c>
@@ -8711,7 +8709,7 @@
         <v>95219</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>481</v>
       </c>
@@ -8725,7 +8723,7 @@
         <v>163418</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>482</v>
       </c>
@@ -8739,7 +8737,7 @@
         <v>2031007</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>483</v>
       </c>
@@ -8753,7 +8751,7 @@
         <v>483439</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>484</v>
       </c>
@@ -8767,7 +8765,7 @@
         <v>585449</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>485</v>
       </c>
@@ -8781,7 +8779,7 @@
         <v>3397448</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>486</v>
       </c>
@@ -8795,7 +8793,7 @@
         <v>867848</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>486</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>3209141</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>312</v>
       </c>
@@ -8823,7 +8821,7 @@
         <v>950289</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>487</v>
       </c>
@@ -8837,7 +8835,7 @@
         <v>1618345</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>488</v>
       </c>
@@ -8851,7 +8849,7 @@
         <v>560440</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>489</v>
       </c>
@@ -8865,7 +8863,7 @@
         <v>476835</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>490</v>
       </c>
@@ -8879,7 +8877,7 @@
         <v>9429408</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>491</v>
       </c>
@@ -8893,7 +8891,7 @@
         <v>5099371</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>492</v>
       </c>
@@ -8907,7 +8905,7 @@
         <v>5095875</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>493</v>
       </c>
@@ -8921,7 +8919,7 @@
         <v>2293919</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>494</v>
       </c>
@@ -8935,7 +8933,7 @@
         <v>1698730</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>495</v>
       </c>
@@ -8949,7 +8947,7 @@
         <v>3264619</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>496</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>2930115</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>497</v>
       </c>
@@ -8977,7 +8975,7 @@
         <v>3405559</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>498</v>
       </c>
@@ -8991,7 +8989,7 @@
         <v>1928812</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>499</v>
       </c>
@@ -9005,7 +9003,7 @@
         <v>1493984</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>499</v>
       </c>
@@ -9019,7 +9017,7 @@
         <v>2634200</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>500</v>
       </c>
@@ -9033,7 +9031,7 @@
         <v>4063872</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>501</v>
       </c>
@@ -9047,7 +9045,7 @@
         <v>1331597</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>502</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>1545814</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>503</v>
       </c>
@@ -9075,7 +9073,7 @@
         <v>3804558</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>504</v>
       </c>
@@ -9089,7 +9087,7 @@
         <v>1537133</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>505</v>
       </c>
@@ -9103,7 +9101,7 @@
         <v>642415</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>506</v>
       </c>
@@ -9117,7 +9115,7 @@
         <v>1156597</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>507</v>
       </c>
@@ -9131,7 +9129,7 @@
         <v>1082636</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>508</v>
       </c>
@@ -9145,7 +9143,7 @@
         <v>1353445</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>509</v>
       </c>
@@ -9159,7 +9157,7 @@
         <v>283713</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>510</v>
       </c>
@@ -9173,7 +9171,7 @@
         <v>949443</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>511</v>
       </c>
@@ -9187,7 +9185,7 @@
         <v>2335819</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>512</v>
       </c>
@@ -9201,7 +9199,7 @@
         <v>2914253</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>513</v>
       </c>
@@ -9215,7 +9213,7 @@
         <v>5296741</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>514</v>
       </c>
@@ -9229,7 +9227,7 @@
         <v>1455069</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>515</v>
       </c>
@@ -9243,7 +9241,7 @@
         <v>1615069</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>516</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>967911</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>517</v>
       </c>
@@ -9271,7 +9269,7 @@
         <v>314667</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>518</v>
       </c>
@@ -9285,7 +9283,7 @@
         <v>2365106</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>519</v>
       </c>
@@ -9299,7 +9297,7 @@
         <v>900332</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>520</v>
       </c>
@@ -9313,7 +9311,7 @@
         <v>258840</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>521</v>
       </c>
@@ -9327,7 +9325,7 @@
         <v>1061204</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>522</v>
       </c>
@@ -9341,7 +9339,7 @@
         <v>2959918</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>523</v>
       </c>
@@ -9355,7 +9353,7 @@
         <v>242285</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>524</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>684627</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>525</v>
       </c>
@@ -9383,7 +9381,7 @@
         <v>2428589</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>526</v>
       </c>
@@ -9397,7 +9395,7 @@
         <v>2378458</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>527</v>
       </c>
@@ -9411,7 +9409,7 @@
         <v>3466382</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>528</v>
       </c>
@@ -9425,7 +9423,7 @@
         <v>1900661</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>529</v>
       </c>
@@ -9439,7 +9437,7 @@
         <v>1150567</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>530</v>
       </c>
@@ -9453,7 +9451,7 @@
         <v>994628</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>531</v>
       </c>
@@ -9467,7 +9465,7 @@
         <v>56574</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>532</v>
       </c>
@@ -9481,7 +9479,7 @@
         <v>3482056</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>533</v>
       </c>
@@ -9495,7 +9493,7 @@
         <v>4261566</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>534</v>
       </c>
@@ -9509,7 +9507,7 @@
         <v>318898</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>535</v>
       </c>
@@ -9523,7 +9521,7 @@
         <v>1041099</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>536</v>
       </c>
@@ -9537,7 +9535,7 @@
         <v>2822143</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>537</v>
       </c>
@@ -9551,7 +9549,7 @@
         <v>1655169</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>538</v>
       </c>
@@ -9565,7 +9563,7 @@
         <v>1715183</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>539</v>
       </c>
@@ -9579,7 +9577,7 @@
         <v>1578213</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>540</v>
       </c>
@@ -9593,7 +9591,7 @@
         <v>1065056</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>541</v>
       </c>
@@ -9607,7 +9605,7 @@
         <v>3951862</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>542</v>
       </c>
@@ -9621,7 +9619,7 @@
         <v>3003741</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>543</v>
       </c>
@@ -9635,7 +9633,7 @@
         <v>2228935</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>544</v>
       </c>
@@ -9649,7 +9647,7 @@
         <v>1335551</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>545</v>
       </c>
@@ -9663,7 +9661,7 @@
         <v>1311332</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>546</v>
       </c>
@@ -9677,7 +9675,7 @@
         <v>479148</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>547</v>
       </c>
@@ -9691,7 +9689,7 @@
         <v>1379131</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>548</v>
       </c>
@@ -9705,7 +9703,7 @@
         <v>64937</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>549</v>
       </c>
@@ -9719,7 +9717,7 @@
         <v>1066063</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>550</v>
       </c>
@@ -9733,7 +9731,7 @@
         <v>612310</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>551</v>
       </c>
@@ -9747,7 +9745,7 @@
         <v>3006538</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>552</v>
       </c>
@@ -9761,7 +9759,7 @@
         <v>1512681</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>553</v>
       </c>
@@ -9775,7 +9773,7 @@
         <v>636342</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>554</v>
       </c>
@@ -9789,7 +9787,7 @@
         <v>656246</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>555</v>
       </c>
@@ -9803,7 +9801,7 @@
         <v>687861</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>556</v>
       </c>
@@ -9817,7 +9815,7 @@
         <v>814010</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>557</v>
       </c>
@@ -9831,7 +9829,7 @@
         <v>1752753</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>558</v>
       </c>
@@ -9845,7 +9843,7 @@
         <v>1726050</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>559</v>
       </c>
@@ -9859,7 +9857,7 @@
         <v>1117361</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>560</v>
       </c>
@@ -9873,7 +9871,7 @@
         <v>266215</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>561</v>
       </c>
@@ -9887,7 +9885,7 @@
         <v>2559297</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>562</v>
       </c>
@@ -9901,7 +9899,7 @@
         <v>1127033</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>563</v>
       </c>
@@ -9915,7 +9913,7 @@
         <v>2677333</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>564</v>
       </c>
@@ -9929,7 +9927,7 @@
         <v>599578</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>565</v>
       </c>
@@ -9943,7 +9941,7 @@
         <v>849651</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>566</v>
       </c>
@@ -9957,7 +9955,7 @@
         <v>1178273</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>567</v>
       </c>
@@ -9971,7 +9969,7 @@
         <v>529855</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>568</v>
       </c>
@@ -9985,7 +9983,7 @@
         <v>1036346</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>569</v>
       </c>
@@ -9999,7 +9997,7 @@
         <v>1295189</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>570</v>
       </c>
@@ -10013,7 +10011,7 @@
         <v>3423574</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>571</v>
       </c>
@@ -10027,7 +10025,7 @@
         <v>4483992</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>572</v>
       </c>
@@ -10041,7 +10039,7 @@
         <v>1339101</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>573</v>
       </c>
@@ -10055,7 +10053,7 @@
         <v>1151050</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>574</v>
       </c>
@@ -10069,7 +10067,7 @@
         <v>3330464</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>575</v>
       </c>
@@ -10083,7 +10081,7 @@
         <v>580320</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>576</v>
       </c>
@@ -10097,7 +10095,7 @@
         <v>4317756</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>577</v>
       </c>
@@ -10111,7 +10109,7 @@
         <v>1862559</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>578</v>
       </c>
@@ -10125,7 +10123,7 @@
         <v>1450001</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>579</v>
       </c>
@@ -10139,7 +10137,7 @@
         <v>1924110</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>580</v>
       </c>
@@ -10153,7 +10151,7 @@
         <v>2731929</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>581</v>
       </c>
@@ -10167,7 +10165,7 @@
         <v>238142</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>582</v>
       </c>
@@ -10181,7 +10179,7 @@
         <v>146850</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>583</v>
       </c>
@@ -10195,7 +10193,7 @@
         <v>142334</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>584</v>
       </c>
@@ -10209,7 +10207,7 @@
         <v>640537</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>585</v>
       </c>
@@ -10223,7 +10221,7 @@
         <v>876001</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>586</v>
       </c>
@@ -10237,7 +10235,7 @@
         <v>8161961</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>587</v>
       </c>
@@ -10251,7 +10249,7 @@
         <v>2292958</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>588</v>
       </c>
@@ -10265,7 +10263,7 @@
         <v>2963557</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>589</v>
       </c>
@@ -10279,7 +10277,7 @@
         <v>2703114</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>590</v>
       </c>
@@ -10293,7 +10291,7 @@
         <v>1236829</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>591</v>
       </c>
@@ -10307,7 +10305,7 @@
         <v>610183</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>592</v>
       </c>
@@ -10321,7 +10319,7 @@
         <v>3797117</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>593</v>
       </c>
@@ -10335,7 +10333,7 @@
         <v>2093437</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>594</v>
       </c>
@@ -10349,7 +10347,7 @@
         <v>2229076</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>595</v>
       </c>
@@ -10363,7 +10361,7 @@
         <v>6081322</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>596</v>
       </c>
@@ -10377,7 +10375,7 @@
         <v>1756268</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>597</v>
       </c>
@@ -10391,7 +10389,7 @@
         <v>2359886</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>598</v>
       </c>
@@ -10405,7 +10403,7 @@
         <v>140651</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>599</v>
       </c>
@@ -10419,7 +10417,7 @@
         <v>807022</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>600</v>
       </c>
@@ -10433,7 +10431,7 @@
         <v>1119627</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>601</v>
       </c>
@@ -10447,7 +10445,7 @@
         <v>49977</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>602</v>
       </c>
@@ -10461,7 +10459,7 @@
         <v>618931</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>603</v>
       </c>
@@ -10475,7 +10473,7 @@
         <v>11060148</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>604</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>2405890</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>605</v>
       </c>
@@ -10503,7 +10501,7 @@
         <v>228291</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>606</v>
       </c>
@@ -10517,7 +10515,7 @@
         <v>735394</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>607</v>
       </c>
@@ -10531,7 +10529,7 @@
         <v>1245899</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>608</v>
       </c>
@@ -10545,7 +10543,7 @@
         <v>3728104</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>609</v>
       </c>
@@ -10559,7 +10557,7 @@
         <v>3301427</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>610</v>
       </c>
@@ -10573,7 +10571,7 @@
         <v>1264277</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>611</v>
       </c>
@@ -10587,7 +10585,7 @@
         <v>1750176</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>612</v>
       </c>
@@ -10601,7 +10599,7 @@
         <v>422168</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>613</v>
       </c>
@@ -10615,7 +10613,7 @@
         <v>3121200</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>614</v>
       </c>
@@ -10629,7 +10627,7 @@
         <v>1445166</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>615</v>
       </c>
@@ -10643,7 +10641,7 @@
         <v>1327929</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>616</v>
       </c>
@@ -10657,7 +10655,7 @@
         <v>111975</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>617</v>
       </c>
@@ -10671,7 +10669,7 @@
         <v>2722290</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>618</v>
       </c>
@@ -10685,7 +10683,7 @@
         <v>3077233</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>619</v>
       </c>
@@ -10699,7 +10697,7 @@
         <v>2479052</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>620</v>
       </c>
@@ -10713,7 +10711,7 @@
         <v>2464875</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>621</v>
       </c>
@@ -10727,7 +10725,7 @@
         <v>1421326</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>622</v>
       </c>
@@ -10741,7 +10739,7 @@
         <v>196596</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>623</v>
       </c>
@@ -10755,7 +10753,7 @@
         <v>2678980</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>624</v>
       </c>
@@ -10769,7 +10767,7 @@
         <v>3068420</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>625</v>
       </c>
@@ -10783,7 +10781,7 @@
         <v>831668</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>626</v>
       </c>
@@ -10797,7 +10795,7 @@
         <v>1648902</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>627</v>
       </c>
@@ -10811,7 +10809,7 @@
         <v>554985</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>628</v>
       </c>
@@ -10825,7 +10823,7 @@
         <v>1177361</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>629</v>
       </c>
@@ -10839,7 +10837,7 @@
         <v>1986864</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>630</v>
       </c>
@@ -10853,7 +10851,7 @@
         <v>183998</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>631</v>
       </c>
@@ -10867,7 +10865,7 @@
         <v>644758</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>632</v>
       </c>
@@ -10881,7 +10879,7 @@
         <v>521173</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>633</v>
       </c>
@@ -10895,7 +10893,7 @@
         <v>3108367</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>634</v>
       </c>
@@ -10909,7 +10907,7 @@
         <v>35320</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>635</v>
       </c>
@@ -10923,7 +10921,7 @@
         <v>83448</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>636</v>
       </c>
@@ -10937,7 +10935,7 @@
         <v>3007134</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>637</v>
       </c>
@@ -10951,7 +10949,7 @@
         <v>1437169</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>638</v>
       </c>
@@ -10965,7 +10963,7 @@
         <v>330086</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>639</v>
       </c>
@@ -10979,7 +10977,7 @@
         <v>4165626</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>640</v>
       </c>
@@ -10993,7 +10991,7 @@
         <v>3495021</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>641</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>1705678</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>642</v>
       </c>
@@ -11021,7 +11019,7 @@
         <v>3676841</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>643</v>
       </c>
@@ -11035,7 +11033,7 @@
         <v>3936331</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>644</v>
       </c>
@@ -11049,7 +11047,7 @@
         <v>1458875</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>645</v>
       </c>
@@ -11063,7 +11061,7 @@
         <v>3458873</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>646</v>
       </c>
@@ -11077,7 +11075,7 @@
         <v>1942288</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>647</v>
       </c>
@@ -11091,7 +11089,7 @@
         <v>4290589</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>648</v>
       </c>
@@ -11105,7 +11103,7 @@
         <v>2344474</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>649</v>
       </c>
@@ -11119,7 +11117,7 @@
         <v>3512576</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>650</v>
       </c>
@@ -11133,7 +11131,7 @@
         <v>1300774</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>651</v>
       </c>
@@ -11147,7 +11145,7 @@
         <v>1197160</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>652</v>
       </c>
@@ -11161,7 +11159,7 @@
         <v>817420</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>653</v>
       </c>
@@ -11175,7 +11173,7 @@
         <v>2543243</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>654</v>
       </c>
@@ -11189,7 +11187,7 @@
         <v>136435</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>655</v>
       </c>
@@ -11203,7 +11201,7 @@
         <v>643291</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>656</v>
       </c>
@@ -11217,7 +11215,7 @@
         <v>3936966</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>657</v>
       </c>
@@ -11231,7 +11229,7 @@
         <v>83947</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>658</v>
       </c>
@@ -11245,7 +11243,7 @@
         <v>383461</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>659</v>
       </c>
@@ -11259,7 +11257,7 @@
         <v>112274</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>660</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>1725739</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>661</v>
       </c>
@@ -11287,7 +11285,7 @@
         <v>166343</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>662</v>
       </c>
@@ -11301,7 +11299,7 @@
         <v>1174271</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>663</v>
       </c>
@@ -11315,7 +11313,7 @@
         <v>1214205</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>664</v>
       </c>
@@ -11329,7 +11327,7 @@
         <v>55626</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>665</v>
       </c>
@@ -11343,7 +11341,7 @@
         <v>2772348</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>666</v>
       </c>
@@ -11357,7 +11355,7 @@
         <v>2882469</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>667</v>
       </c>
